--- a/ML_PL_new/paperbets.xlsx
+++ b/ML_PL_new/paperbets.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB18"/>
+  <dimension ref="A1:BJ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,46 @@
           <t>O/U2.5_KNN_profit</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>FTR_gNB_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>FTR_RF_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>FTR_DT_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>FTR_KNN_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_gNB_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_RF_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_DT_profit_cumsum</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_KNN_profit_cumsum</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -909,6 +949,30 @@
       <c r="BB2" t="n">
         <v>-0.7692307692307694</v>
       </c>
+      <c r="BC2" t="n">
+        <v>-0.3448275862068966</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.3448275862068966</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-0.3448275862068966</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-0.3448275862068966</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1109,6 +1173,30 @@
       <c r="BB3" t="n">
         <v>-0.4761904761904762</v>
       </c>
+      <c r="BC3" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>-0.9330628803245435</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-1.245421245421246</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>-1.245421245421246</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.5238095238095237</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>-1.245421245421246</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1309,6 +1397,30 @@
       <c r="BB4" t="n">
         <v>1</v>
       </c>
+      <c r="BC4" t="n">
+        <v>-0.3974591651542645</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-0.3974591651542645</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>-1.985694459271911</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-0.3974591651542645</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-2.078754578754579</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-2.078754578754579</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.3095238095238095</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>-0.2454212454212457</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1509,6 +1621,30 @@
       <c r="BB5" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="BC5" t="n">
+        <v>-0.6606170598911065</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>-0.6606170598911065</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>-2.248852354008754</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-0.6606170598911065</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>-1.078754578754579</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-1.078754578754579</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.6904761904761905</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-1.078754578754579</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1709,6 +1845,30 @@
       <c r="BB6" t="n">
         <v>-1.36986301369863</v>
       </c>
+      <c r="BC6" t="n">
+        <v>0.3393829401088935</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.3393829401088935</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>-1.248852354008754</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.3393829401088935</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-2.448617592453209</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-2.448617592453209</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.69047619047619</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-2.448617592453209</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1909,6 +2069,30 @@
       <c r="BB7" t="n">
         <v>1</v>
       </c>
+      <c r="BC7" t="n">
+        <v>1.339382940108893</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-1.273520285697558</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-2.861755579815205</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-1.273520285697558</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-3.941154905886044</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-1.448617592453209</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.1979388770433546</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>-1.448617592453209</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2109,6 +2293,30 @@
       <c r="BB8" t="n">
         <v>1</v>
       </c>
+      <c r="BC8" t="n">
+        <v>2.339382940108893</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.2735202856975576</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-1.861755579815205</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.2735202856975576</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-2.941154905886044</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.4486175924532088</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.197938877043355</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>-0.4486175924532088</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2309,6 +2517,30 @@
       <c r="BB9" t="n">
         <v>1</v>
       </c>
+      <c r="BC9" t="n">
+        <v>3.339382940108893</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.7264797143024424</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-2.306200024259649</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.7264797143024424</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-1.941154905886044</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-2.115284259119876</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>2.197938877043355</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.5513824075467912</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2509,6 +2741,30 @@
       <c r="BB10" t="n">
         <v>-1.176470588235294</v>
       </c>
+      <c r="BC10" t="n">
+        <v>2.783827384553338</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.726479714302442</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-2.861755579815204</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.726479714302442</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>-3.117625494121338</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-3.29175484735517</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.021468288808061</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-0.6250881806885027</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2709,6 +2965,30 @@
       <c r="BB11" t="n">
         <v>-1.098901098901099</v>
       </c>
+      <c r="BC11" t="n">
+        <v>3.783827384553338</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2.726479714302442</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-3.278422246481871</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.309813047635776</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>-2.117625494121338</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>-2.29175484735517</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2.021468288808061</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>-1.723989279589602</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2909,6 +3189,30 @@
       <c r="BB12" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="BC12" t="n">
+        <v>3.195592090435691</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.138244420184796</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-3.866657540599518</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.7215777535181287</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-2.950958827454672</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>-3.125088180688503</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.188134955474727</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-2.557322612922935</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -3109,6 +3413,30 @@
       <c r="BB13" t="n">
         <v>0.9999999999999993</v>
       </c>
+      <c r="BC13" t="n">
+        <v>4.195592090435691</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>3.138244420184796</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>-2.866657540599518</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1.721577753518129</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-1.950958827454673</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>-2.125088180688504</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>2.188134955474727</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-1.557322612922935</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -3309,6 +3637,30 @@
       <c r="BB14" t="n">
         <v>-0.6172839506172839</v>
       </c>
+      <c r="BC14" t="n">
+        <v>3.395592090435692</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.338244420184796</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>-3.666657540599518</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.9215777535181287</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>-2.568242778071956</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>-2.742372131305788</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.570851004857443</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-2.174606563540219</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -3316,27 +3668,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3346,7 +3698,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3386,7 +3738,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3395,31 +3747,31 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="W15" t="n">
-        <v>2.777777777777777</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>2.777777777777777</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.777777777777777</v>
+        <v>0.9523809523809526</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.777777777777777</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -3434,28 +3786,28 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.754385964912281</v>
+        <v>1.25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.754385964912281</v>
+        <v>1.25</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.754385964912281</v>
+        <v>1.25</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -3467,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
         <v>2</v>
       </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="AU15" t="n">
@@ -3492,22 +3844,46 @@
         <v>1</v>
       </c>
       <c r="AW15" t="n">
-        <v>1</v>
+        <v>-0.9523809523809526</v>
       </c>
       <c r="AX15" t="n">
         <v>1</v>
       </c>
       <c r="AY15" t="n">
-        <v>-1.754385964912281</v>
+        <v>1</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-1.754385964912281</v>
+        <v>1</v>
       </c>
       <c r="BA15" t="n">
-        <v>-1.754385964912281</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>-1.754385964912281</v>
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>4.395592090435692</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>3.338244420184796</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>-4.61903849298047</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1.921577753518129</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-1.568242778071956</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>-1.742372131305788</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2.570851004857443</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-3.227238142487587</v>
       </c>
     </row>
     <row r="16">
@@ -3516,27 +3892,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3546,7 +3922,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3586,105 +3962,105 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
           <t>Under</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>William Hill</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.9523809523809526</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1.052631578947368</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
       <c r="AU16" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +4068,46 @@
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.9523809523809526</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="n">
         <v>1</v>
       </c>
       <c r="AY16" t="n">
-        <v>1</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="AZ16" t="n">
-        <v>1</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="BA16" t="n">
-        <v>1</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="BB16" t="n">
-        <v>-1.052631578947368</v>
+        <v>-1.754385964912281</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5.395592090435692</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>4.338244420184796</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>-3.61903849298047</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.921577753518129</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>-3.322628742984238</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>-3.496758096218069</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.8164650399451616</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>-4.981624107399868</v>
       </c>
     </row>
     <row r="17">
@@ -3909,6 +4309,30 @@
       <c r="BB17" t="n">
         <v>1</v>
       </c>
+      <c r="BC17" t="n">
+        <v>4.960809481740039</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>3.569013650954027</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>-4.38826926221124</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.15234698428736</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>-2.322628742984238</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>-2.496758096218069</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.816465039945162</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-3.981624107399868</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -4108,6 +4532,8094 @@
       </c>
       <c r="BB18" t="n">
         <v>-1.333333333333333</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>5.960809481740039</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>4.569013650954027</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>-4.51326926221124</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>3.15234698428736</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>-3.655962076317571</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>-3.830091429551402</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.4831317066118286</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>-5.314957440733201</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45723.83333333334</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU19" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>5.294142815073372</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>3.90234698428736</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>-5.179935928877907</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.485680317620693</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>-4.832432664552865</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>-5.006562017786695</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>-0.6933388816234654</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>-6.491428028968494</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45723.84375</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.588235294117647</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>-0.588235294117647</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>-0.588235294117647</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>6.294142815073372</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>3.235680317620694</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>-5.768171222995553</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.897445023503046</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>-3.832432664552865</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>-5.775792787017465</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>-1.462569650854235</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>-7.260658798199263</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45723.85416666666</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M'gladbach</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>7.294142815073372</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.569013650954027</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>-6.43483788966222</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.897445023503046</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>-2.832432664552865</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>-4.775792787017465</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>-0.4625696508542347</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>-6.260658798199263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45723.86458333334</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU22" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>6.385051905982463</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.659922741863118</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>-7.343928798753129</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.988354114412137</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>-4.324969977985701</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>-6.2683301004503</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>-1.955106964287071</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>-7.753196111632099</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45723.86458333334</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>St Truiden</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Beerschot VA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>7.385051905982463</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.409922741863118</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>-6.343928798753129</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.738354114412137</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>-5.937873203792152</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>-7.881233326256751</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>-3.568010190093521</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>-9.36609933743855</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45723.86458333334</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU24" t="n">
+        <v>-0.4761904761904762</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>-0.4761904761904762</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>6.908861429791987</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.9337322656726417</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>-7.058214513038844</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.738354114412137</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>-6.707103973022921</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>-8.650464095487521</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>-4.337240959324291</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>-10.13533010666932</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45724.52083333334</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>7.908861429791987</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.933732265672642</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>-6.058214513038844</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>3.738354114412137</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>-8.525285791204739</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>-10.46864591366934</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>-6.155422777506109</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>-9.13533010666932</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45724.58333333334</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Celta</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.754385964912281</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>7.575528096458654</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.933732265672642</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>-5.058214513038844</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>3.538354114412137</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>-7.52528579120474</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>-9.46864591366934</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>-5.15542277750611</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>-8.13533010666932</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45724.625</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>7.175528096458653</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2.533732265672642</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>-5.458214513038844</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3.138354114412137</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>-6.52528579120474</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>-8.46864591366934</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>-4.15542277750611</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>-9.13533010666932</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45724.625</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>19</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9.090909090909083</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9.090909090909083</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>-0.05555555555555555</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>8.175528096458653</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.478176710117087</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>-4.458214513038844</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3.038354114412137</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>-5.52528579120474</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>-7.46864591366934</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>-3.15542277750611</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>-8.13533010666932</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45724.625</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU29" t="n">
+        <v>-0.2222222222222222</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>-1.666666666666667</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>-0.2222222222222222</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>7.95330587423643</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.8115100434504199</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>-6.124881179705511</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.816131892189914</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>-6.701756379440035</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>-8.645116501904633</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>-4.331893365741404</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>-9.311800694904614</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45724.625</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU30" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>7.336021923619146</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.194226092833136</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>-6.742165130322795</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2.19884794157263</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>-5.701756379440035</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>-7.645116501904634</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>-3.331893365741405</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>-8.311800694904614</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45724.625</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>8.336021923619146</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.194226092833136</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>-5.742165130322795</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3.19884794157263</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>-7.130327808011464</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>-6.645116501904634</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>-2.331893365741405</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>-7.311800694904614</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45724.64583333334</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>12</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU32" t="n">
+        <v>-4.545454545454546</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>-4.545454545454546</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>-4.545454545454546</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>-4.545454545454546</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>3.7905673781646</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>-3.35122845262141</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>-10.28761967577734</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>-1.346606603881916</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>-9.130327808011465</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>-5.645116501904634</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>-4.331893365741405</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>-6.311800694904614</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45724.64583333334</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S33" t="n">
+        <v>11</v>
+      </c>
+      <c r="T33" t="n">
+        <v>19</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9.090909090909083</v>
+      </c>
+      <c r="X33" t="n">
+        <v>9.090909090909083</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.090909090909083</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>9.090909090909083</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU33" t="n">
+        <v>-9.090909090909083</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>-9.090909090909083</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>-9.090909090909083</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>-9.090909090909083</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>-5.300341712744483</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>-12.44213754353049</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>-19.37852876668642</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>-10.437515694791</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>-8.130327808011465</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>-4.645116501904634</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>-3.331893365741405</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>-5.311800694904614</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45724.64583333334</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>St Pauli</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>-6.633675046077816</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>-13.77547087686382</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>-20.71186210001975</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>-11.77084902812433</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>-9.463661141344797</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>-5.978449835237967</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>-4.665226699074738</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>-6.645134028237947</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45724.64583333334</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>-0.8333333333333333</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>-0.8333333333333333</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>-0.8333333333333333</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>-5.633675046077816</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>-12.77547087686382</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>-21.21186210001975</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>-10.77084902812433</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>-10.29699447467813</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>-6.8117831685713</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>-5.498560032408071</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>-5.645134028237947</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45724.64583333334</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>-7.633675046077816</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>-14.77547087686382</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>-23.21186210001975</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>-12.77084902812433</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>-11.78953178811097</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>-8.304320482004137</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>-6.991097345840907</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>-7.137671341670782</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45724.64583333334</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU37" t="n">
+        <v>-1.886792452830188</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>-1.886792452830188</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>-0.2222222222222222</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>-1.886792452830188</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>-9.520467498908003</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>-16.66226332969401</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>-23.43408432224198</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>-14.65764148095452</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>-10.78953178811097</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>-7.304320482004137</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>-5.991097345840907</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>-6.137671341670782</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45724.66666666666</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Oud-Heverlee Leuven</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>-8.520467498908003</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>-15.66226332969401</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>-22.43408432224198</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>-13.65764148095452</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>-11.84216336705834</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>-8.356952060951505</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>-7.043728924788275</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>-7.190302920618151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45724.67708333334</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.689655172413793</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU39" t="n">
+        <v>-0.689655172413793</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>-9.210122671321797</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>-14.66226332969401</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>-21.43408432224198</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>-12.65764148095452</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>-12.75125427614924</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>-9.266042970042413</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>-7.952819833879184</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>-8.09939382970906</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45724.6875</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>For Sittard</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>-0.4761904761904762</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>-8.210122671321797</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>-13.66226332969401</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>-20.43408432224198</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>-13.133831957145</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>-13.92772486438454</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>-10.44251355827771</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>-9.129290422114478</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>-7.09939382970906</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45724.70833333334</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>-7.210122671321797</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>-12.66226332969401</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>-20.71979860795626</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>-12.133831957145</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>-14.5943915310512</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>-9.442513558277707</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>-8.129290422114478</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>-6.09939382970906</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45724.72916666666</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>-7.979353440552566</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>-13.43149409892478</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>-21.48902937718703</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>-12.90306272637577</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>-16.5943915310512</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>-11.44251355827771</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>-10.12929042211448</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>-8.09939382970906</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45724.75</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>-6.979353440552566</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>-12.43149409892478</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>-20.48902937718703</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>-11.90306272637577</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>-15.5943915310512</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>-10.44251355827771</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>-9.129290422114478</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>-7.09939382970906</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45724.75</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>12</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>-5.979353440552566</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>-11.43149409892478</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>-19.48902937718703</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>-10.90306272637577</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>-14.5943915310512</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>-9.442513558277707</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>-8.129290422114478</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>-6.09939382970906</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45724.75</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU45" t="n">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>-6.396020107219233</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>-12.38387505130574</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>-20.44141032956798</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>-11.31972939304243</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>-13.5943915310512</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>-8.442513558277707</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>-7.129290422114478</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>-5.09939382970906</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45724.76041666666</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU46" t="n">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>-1.176470588235294</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>-6.8126867738859</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>-13.29296596039664</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>-19.44141032956798</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>-12.22882030213334</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>-14.77086211928649</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>-9.618984146513</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>-8.305761010349771</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>-6.275864417944353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45724.77083333334</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU47" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>-1.36986301369863</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>-1.36986301369863</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>-1.36986301369863</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>-1.36986301369863</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>-7.429970724503184</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>-13.95963262706331</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>-20.05869428018527</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>-12.84610425275062</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>-16.14072513298512</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>-10.98884716021163</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>-9.675624024048401</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>-7.645727431642984</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45724.77083333334</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>-0.3125</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>-6.429970724503184</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>-12.95963262706331</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>-19.05869428018527</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>-13.15860425275062</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>-15.14072513298512</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>-9.98884716021163</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>-8.675624024048401</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>-9.258630657449434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45724.79166666666</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>-1.818181818181818</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>-5.429970724503184</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>-11.95963262706331</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>-18.05869428018527</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>-12.15860425275062</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>-16.95890695116694</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>-11.80702897839345</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>-10.49380584223022</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>-11.07681247563125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45724.83333333334</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>11</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>-4.429970724503184</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>-10.95963262706331</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>-17.05869428018527</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>-11.15860425275062</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>-15.95890695116694</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>-10.80702897839345</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>-9.49380584223022</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>-10.07681247563125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45724.85416666666</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sp Braga</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>-0.8695652173913044</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>-3.429970724503184</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>-9.959632627063311</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>-17.92825949757657</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>-10.15860425275062</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>-16.95890695116694</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>-11.80702897839345</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>-10.49380584223022</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>-9.076812475631252</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45724.86458333334</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Dender</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>-2.429970724503184</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>-8.959632627063311</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>-16.92825949757657</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>-9.158604252750623</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>-18.45144426459978</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>-13.29956629182628</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>-11.98634315566306</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>-10.56934978906409</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45724.86458333334</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>17</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>7.142857142857148</v>
+      </c>
+      <c r="X53" t="n">
+        <v>7.142857142857148</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>7.142857142857148</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>7.142857142857148</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>-1.429970724503184</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>-7.959632627063311</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>-15.92825949757657</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>-8.158604252750623</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>-19.11811093126645</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>-12.29956629182628</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>-10.98634315566306</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>-9.569349789064088</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45724.87847222222</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU54" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>-2.858542153074612</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>-9.388204055634739</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>-14.92825949757657</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>-9.587175681322051</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>-20.65657246972799</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>-13.83802783028782</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>-12.52480469412459</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>-11.10781132752563</v>
       </c>
     </row>
   </sheetData>
@@ -4121,7 +12633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4130,79 +12642,119 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5.960809481740039</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>FTR_gNB_profit</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3506358518670611</v>
+        <v>-2.858542153074611</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.05393475760518134</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>4.569013650954026</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>FTR_RF_profit</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2687655088796486</v>
+        <v>-9.388204055634741</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.177135925578014</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>-4.51326926221124</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>FTR_DT_profit</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2654864271888965</v>
+        <v>-14.92825949757658</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.2816652735391807</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3.15234698428736</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FTR_KNN_profit</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1854321755463153</v>
+        <v>-9.587175681322053</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1808901071947557</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>-3.655962076317571</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_gNB_profit</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.215056592724563</v>
+        <v>-20.65657246972799</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3897466503722262</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>-3.830091429551402</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_RF_profit</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2252994958559648</v>
+        <v>-13.83802783028782</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.2610948647224118</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0.4831317066118286</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_DT_profit</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02841951215363698</v>
+        <v>-12.52480469412459</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.236317069700464</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>-5.314957440733202</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>O/U2.5_KNN_profit</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3126445553372472</v>
+        <v>-11.10781132752563</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2095813458023704</v>
       </c>
     </row>
   </sheetData>

--- a/ML_PL_new/paperbets.xlsx
+++ b/ML_PL_new/paperbets.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ54"/>
+  <dimension ref="A1:BJ83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2339,207 +2339,207 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>Under</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>William Hill</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
       <c r="AU9" t="n">
-        <v>1</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.4444444444444444</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-1.666666666666667</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="BA9" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="BB9" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.339382940108893</v>
+        <v>1.783827384553338</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.7264797143024424</v>
+        <v>0.7264797143024423</v>
       </c>
       <c r="BE9" t="n">
-        <v>-2.306200024259649</v>
+        <v>-2.417311135370761</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.7264797143024424</v>
+        <v>0.7264797143024423</v>
       </c>
       <c r="BG9" t="n">
-        <v>-1.941154905886044</v>
+        <v>-4.117625494121338</v>
       </c>
       <c r="BH9" t="n">
-        <v>-2.115284259119876</v>
+        <v>-1.625088180688503</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.197938877043355</v>
+        <v>0.02146828880806062</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.5513824075467912</v>
+        <v>-1.625088180688503</v>
       </c>
     </row>
     <row r="10">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2573,173 +2573,173 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>William Hill</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.176470588235294</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="AU10" t="n">
-        <v>-0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.5555555555555556</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AY10" t="n">
-        <v>-1.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-1.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="BA10" t="n">
-        <v>-1.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>-1.176470588235294</v>
+        <v>-1.098901098901099</v>
       </c>
       <c r="BC10" t="n">
         <v>2.783827384553338</v>
@@ -2748,22 +2748,22 @@
         <v>1.726479714302442</v>
       </c>
       <c r="BE10" t="n">
-        <v>-2.861755579815204</v>
+        <v>-2.833977802037427</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.726479714302442</v>
+        <v>0.3098130476357756</v>
       </c>
       <c r="BG10" t="n">
         <v>-3.117625494121338</v>
       </c>
       <c r="BH10" t="n">
-        <v>-3.29175484735517</v>
+        <v>-0.6250881806885027</v>
       </c>
       <c r="BI10" t="n">
         <v>1.021468288808061</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.6250881806885027</v>
+        <v>-2.723989279589602</v>
       </c>
     </row>
     <row r="11">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2797,12 +2797,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2851,19 +2851,19 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2884,46 +2884,46 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9523809523809526</v>
+        <v>0.8</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9523809523809526</v>
+        <v>0.8</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.098901098901099</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -2948,22 +2948,22 @@
         <v>1</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="AY11" t="n">
         <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="BA11" t="n">
         <v>1</v>
       </c>
       <c r="BB11" t="n">
-        <v>-1.098901098901099</v>
+        <v>1</v>
       </c>
       <c r="BC11" t="n">
         <v>3.783827384553338</v>
@@ -3202,7 +3202,7 @@
         <v>0.7215777535181287</v>
       </c>
       <c r="BG12" t="n">
-        <v>-2.950958827454672</v>
+        <v>-2.950958827454671</v>
       </c>
       <c r="BH12" t="n">
         <v>-3.125088180688503</v>
@@ -3426,7 +3426,7 @@
         <v>1.721577753518129</v>
       </c>
       <c r="BG13" t="n">
-        <v>-1.950958827454673</v>
+        <v>-1.950958827454672</v>
       </c>
       <c r="BH13" t="n">
         <v>-2.125088180688504</v>
@@ -3650,7 +3650,7 @@
         <v>0.9215777535181287</v>
       </c>
       <c r="BG14" t="n">
-        <v>-2.568242778071956</v>
+        <v>-2.568242778071955</v>
       </c>
       <c r="BH14" t="n">
         <v>-2.742372131305788</v>
@@ -3874,7 +3874,7 @@
         <v>1.921577753518129</v>
       </c>
       <c r="BG15" t="n">
-        <v>-1.568242778071956</v>
+        <v>-1.568242778071955</v>
       </c>
       <c r="BH15" t="n">
         <v>-1.742372131305788</v>
@@ -4098,7 +4098,7 @@
         <v>2.921577753518129</v>
       </c>
       <c r="BG16" t="n">
-        <v>-3.322628742984238</v>
+        <v>-3.322628742984237</v>
       </c>
       <c r="BH16" t="n">
         <v>-3.496758096218069</v>
@@ -4322,7 +4322,7 @@
         <v>2.15234698428736</v>
       </c>
       <c r="BG17" t="n">
-        <v>-2.322628742984238</v>
+        <v>-2.322628742984237</v>
       </c>
       <c r="BH17" t="n">
         <v>-2.496758096218069</v>
@@ -4546,7 +4546,7 @@
         <v>3.15234698428736</v>
       </c>
       <c r="BG18" t="n">
-        <v>-3.655962076317571</v>
+        <v>-3.65596207631757</v>
       </c>
       <c r="BH18" t="n">
         <v>-3.830091429551402</v>
@@ -4770,7 +4770,7 @@
         <v>2.485680317620693</v>
       </c>
       <c r="BG19" t="n">
-        <v>-4.832432664552865</v>
+        <v>-4.832432664552863</v>
       </c>
       <c r="BH19" t="n">
         <v>-5.006562017786695</v>
@@ -4994,7 +4994,7 @@
         <v>1.897445023503046</v>
       </c>
       <c r="BG20" t="n">
-        <v>-3.832432664552865</v>
+        <v>-3.832432664552863</v>
       </c>
       <c r="BH20" t="n">
         <v>-5.775792787017465</v>
@@ -5218,7 +5218,7 @@
         <v>2.897445023503046</v>
       </c>
       <c r="BG21" t="n">
-        <v>-2.832432664552865</v>
+        <v>-2.832432664552863</v>
       </c>
       <c r="BH21" t="n">
         <v>-4.775792787017465</v>
@@ -5442,7 +5442,7 @@
         <v>1.988354114412137</v>
       </c>
       <c r="BG22" t="n">
-        <v>-4.324969977985701</v>
+        <v>-4.324969977985699</v>
       </c>
       <c r="BH22" t="n">
         <v>-6.2683301004503</v>
@@ -5666,7 +5666,7 @@
         <v>1.738354114412137</v>
       </c>
       <c r="BG23" t="n">
-        <v>-5.937873203792152</v>
+        <v>-5.93787320379215</v>
       </c>
       <c r="BH23" t="n">
         <v>-7.881233326256751</v>
@@ -5890,7 +5890,7 @@
         <v>2.738354114412137</v>
       </c>
       <c r="BG24" t="n">
-        <v>-6.707103973022921</v>
+        <v>-6.707103973022919</v>
       </c>
       <c r="BH24" t="n">
         <v>-8.650464095487521</v>
@@ -6114,7 +6114,7 @@
         <v>3.738354114412137</v>
       </c>
       <c r="BG25" t="n">
-        <v>-8.525285791204739</v>
+        <v>-8.525285791204738</v>
       </c>
       <c r="BH25" t="n">
         <v>-10.46864591366934</v>
@@ -6338,7 +6338,7 @@
         <v>3.538354114412137</v>
       </c>
       <c r="BG26" t="n">
-        <v>-7.52528579120474</v>
+        <v>-7.525285791204738</v>
       </c>
       <c r="BH26" t="n">
         <v>-9.46864591366934</v>
@@ -6356,17 +6356,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ENG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6376,19 +6376,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -6435,28 +6435,28 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T27" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -6474,28 +6474,28 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.4</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.333333333333333</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.333333333333333</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.333333333333333</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -6507,17 +6507,17 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" t="n">
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6526,52 +6526,52 @@
         </is>
       </c>
       <c r="AU27" t="n">
-        <v>-0.4</v>
+        <v>-0.6172839506172839</v>
       </c>
       <c r="AV27" t="n">
-        <v>-0.4</v>
+        <v>-0.6172839506172839</v>
       </c>
       <c r="AW27" t="n">
-        <v>-0.4</v>
+        <v>-0.6172839506172839</v>
       </c>
       <c r="AX27" t="n">
-        <v>-0.4</v>
+        <v>-0.6172839506172839</v>
       </c>
       <c r="AY27" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="BA27" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="BB27" t="n">
-        <v>-1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="BC27" t="n">
-        <v>7.175528096458653</v>
+        <v>6.95824414584137</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.533732265672642</v>
+        <v>2.316448315055358</v>
       </c>
       <c r="BE27" t="n">
-        <v>-5.458214513038844</v>
+        <v>-5.675498463656128</v>
       </c>
       <c r="BF27" t="n">
-        <v>3.138354114412137</v>
+        <v>2.921070163794853</v>
       </c>
       <c r="BG27" t="n">
-        <v>-6.52528579120474</v>
+        <v>-6.525285791204739</v>
       </c>
       <c r="BH27" t="n">
         <v>-8.46864591366934</v>
       </c>
       <c r="BI27" t="n">
-        <v>-4.15542277750611</v>
+        <v>-4.155422777506111</v>
       </c>
       <c r="BJ27" t="n">
-        <v>-9.13533010666932</v>
+        <v>-7.135330106669321</v>
       </c>
     </row>
     <row r="28">
@@ -6580,222 +6580,222 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ENG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>William Hill</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S28" t="n">
-        <v>11</v>
-      </c>
-      <c r="T28" t="n">
-        <v>19</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V28" t="n">
-        <v>4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>9.090909090909083</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.090909090909083</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS28" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="AU28" t="n">
-        <v>1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.05555555555555555</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="AW28" t="n">
-        <v>1</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="AX28" t="n">
-        <v>-0.1</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="AY28" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="BA28" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="BB28" t="n">
-        <v>1</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="BC28" t="n">
-        <v>8.175528096458653</v>
+        <v>6.736021923619147</v>
       </c>
       <c r="BD28" t="n">
-        <v>2.478176710117087</v>
+        <v>0.6497816483886907</v>
       </c>
       <c r="BE28" t="n">
-        <v>-4.458214513038844</v>
+        <v>-7.342165130322795</v>
       </c>
       <c r="BF28" t="n">
-        <v>3.038354114412137</v>
+        <v>2.69884794157263</v>
       </c>
       <c r="BG28" t="n">
-        <v>-5.52528579120474</v>
+        <v>-7.701756379440033</v>
       </c>
       <c r="BH28" t="n">
-        <v>-7.46864591366934</v>
+        <v>-9.645116501904633</v>
       </c>
       <c r="BI28" t="n">
-        <v>-3.15542277750611</v>
+        <v>-5.331893365741404</v>
       </c>
       <c r="BJ28" t="n">
-        <v>-8.13533010666932</v>
+        <v>-8.311800694904615</v>
       </c>
     </row>
     <row r="29">
@@ -6804,22 +6804,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Ipswich</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ENG</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6864,17 +6864,17 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -6883,31 +6883,31 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S29" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="T29" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="X29" t="n">
-        <v>1.666666666666667</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.666666666666667</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -6931,41 +6931,41 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.176470588235294</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -6974,43 +6974,43 @@
         </is>
       </c>
       <c r="AU29" t="n">
-        <v>-0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="AV29" t="n">
-        <v>-1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AW29" t="n">
-        <v>-1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AX29" t="n">
-        <v>-0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="AY29" t="n">
-        <v>-1.176470588235294</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-1.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>-1.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="BB29" t="n">
-        <v>-1.176470588235294</v>
+        <v>1</v>
       </c>
       <c r="BC29" t="n">
-        <v>7.95330587423643</v>
+        <v>7.736021923619147</v>
       </c>
       <c r="BD29" t="n">
-        <v>0.8115100434504199</v>
+        <v>1.649781648388691</v>
       </c>
       <c r="BE29" t="n">
-        <v>-6.124881179705511</v>
+        <v>-6.342165130322795</v>
       </c>
       <c r="BF29" t="n">
-        <v>2.816131892189914</v>
+        <v>3.69884794157263</v>
       </c>
       <c r="BG29" t="n">
-        <v>-6.701756379440035</v>
+        <v>-9.130327808011462</v>
       </c>
       <c r="BH29" t="n">
         <v>-8.645116501904633</v>
@@ -7019,7 +7019,7 @@
         <v>-4.331893365741404</v>
       </c>
       <c r="BJ29" t="n">
-        <v>-9.311800694904614</v>
+        <v>-7.311800694904615</v>
       </c>
     </row>
     <row r="30">
@@ -7028,17 +7028,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ENG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -7107,28 +7107,28 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0.6172839506172839</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6172839506172839</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -7146,28 +7146,28 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.6172839506172839</v>
+        <v>0.4</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.6172839506172839</v>
+        <v>0.4</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.052631578947368</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.052631578947368</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AK30" t="n">
-        <v>1.052631578947368</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.052631578947368</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -7179,17 +7179,17 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
         <v>2</v>
       </c>
       <c r="AR30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7198,52 +7198,52 @@
         </is>
       </c>
       <c r="AU30" t="n">
-        <v>-0.6172839506172839</v>
+        <v>-0.4</v>
       </c>
       <c r="AV30" t="n">
-        <v>-0.6172839506172839</v>
+        <v>-0.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>-0.6172839506172839</v>
+        <v>-0.4</v>
       </c>
       <c r="AX30" t="n">
-        <v>-0.6172839506172839</v>
+        <v>-0.4</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="BB30" t="n">
-        <v>0.9999999999999993</v>
+        <v>-1</v>
       </c>
       <c r="BC30" t="n">
-        <v>7.336021923619146</v>
+        <v>7.336021923619147</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.194226092833136</v>
+        <v>1.249781648388691</v>
       </c>
       <c r="BE30" t="n">
         <v>-6.742165130322795</v>
       </c>
       <c r="BF30" t="n">
-        <v>2.19884794157263</v>
+        <v>3.29884794157263</v>
       </c>
       <c r="BG30" t="n">
-        <v>-5.701756379440035</v>
+        <v>-8.130327808011462</v>
       </c>
       <c r="BH30" t="n">
-        <v>-7.645116501904634</v>
+        <v>-7.645116501904633</v>
       </c>
       <c r="BI30" t="n">
-        <v>-3.331893365741405</v>
+        <v>-3.331893365741404</v>
       </c>
       <c r="BJ30" t="n">
-        <v>-8.311800694904614</v>
+        <v>-8.311800694904615</v>
       </c>
     </row>
     <row r="31">
@@ -7252,12 +7252,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7312,17 +7312,17 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -7331,31 +7331,31 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="T31" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="U31" t="n">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="V31" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
-        <v>2.272727272727273</v>
+        <v>9.090909090909083</v>
       </c>
       <c r="X31" t="n">
-        <v>2.272727272727273</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.272727272727273</v>
+        <v>9.090909090909083</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.272727272727273</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -7367,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -7382,34 +7382,34 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.428571428571429</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
@@ -7418,23 +7418,23 @@
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="AU31" t="n">
         <v>1</v>
       </c>
       <c r="AV31" t="n">
-        <v>1</v>
+        <v>-0.05555555555555555</v>
       </c>
       <c r="AW31" t="n">
         <v>1</v>
       </c>
       <c r="AX31" t="n">
-        <v>1</v>
+        <v>-0.1</v>
       </c>
       <c r="AY31" t="n">
-        <v>-1.428571428571429</v>
+        <v>1</v>
       </c>
       <c r="AZ31" t="n">
         <v>1</v>
@@ -7449,7 +7449,7 @@
         <v>8.336021923619146</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.194226092833136</v>
+        <v>1.194226092833135</v>
       </c>
       <c r="BE31" t="n">
         <v>-5.742165130322795</v>
@@ -7458,16 +7458,16 @@
         <v>3.19884794157263</v>
       </c>
       <c r="BG31" t="n">
-        <v>-7.130327808011464</v>
+        <v>-7.130327808011462</v>
       </c>
       <c r="BH31" t="n">
-        <v>-6.645116501904634</v>
+        <v>-6.645116501904633</v>
       </c>
       <c r="BI31" t="n">
-        <v>-2.331893365741405</v>
+        <v>-2.331893365741404</v>
       </c>
       <c r="BJ31" t="n">
-        <v>-7.311800694904614</v>
+        <v>-7.311800694904615</v>
       </c>
     </row>
     <row r="32">
@@ -7682,16 +7682,16 @@
         <v>-1.346606603881916</v>
       </c>
       <c r="BG32" t="n">
-        <v>-9.130327808011465</v>
+        <v>-9.130327808011462</v>
       </c>
       <c r="BH32" t="n">
-        <v>-5.645116501904634</v>
+        <v>-5.645116501904633</v>
       </c>
       <c r="BI32" t="n">
-        <v>-4.331893365741405</v>
+        <v>-4.331893365741404</v>
       </c>
       <c r="BJ32" t="n">
-        <v>-6.311800694904614</v>
+        <v>-6.311800694904615</v>
       </c>
     </row>
     <row r="33">
@@ -7906,16 +7906,16 @@
         <v>-10.437515694791</v>
       </c>
       <c r="BG33" t="n">
-        <v>-8.130327808011465</v>
+        <v>-8.130327808011462</v>
       </c>
       <c r="BH33" t="n">
-        <v>-4.645116501904634</v>
+        <v>-4.645116501904633</v>
       </c>
       <c r="BI33" t="n">
-        <v>-3.331893365741405</v>
+        <v>-3.331893365741404</v>
       </c>
       <c r="BJ33" t="n">
-        <v>-5.311800694904614</v>
+        <v>-5.311800694904615</v>
       </c>
     </row>
     <row r="34">
@@ -8130,16 +8130,16 @@
         <v>-11.77084902812433</v>
       </c>
       <c r="BG34" t="n">
-        <v>-9.463661141344797</v>
+        <v>-9.463661141344794</v>
       </c>
       <c r="BH34" t="n">
-        <v>-5.978449835237967</v>
+        <v>-5.978449835237966</v>
       </c>
       <c r="BI34" t="n">
-        <v>-4.665226699074738</v>
+        <v>-4.665226699074737</v>
       </c>
       <c r="BJ34" t="n">
-        <v>-6.645134028237947</v>
+        <v>-6.645134028237949</v>
       </c>
     </row>
     <row r="35">
@@ -8357,13 +8357,13 @@
         <v>-10.29699447467813</v>
       </c>
       <c r="BH35" t="n">
-        <v>-6.8117831685713</v>
+        <v>-6.811783168571299</v>
       </c>
       <c r="BI35" t="n">
-        <v>-5.498560032408071</v>
+        <v>-5.49856003240807</v>
       </c>
       <c r="BJ35" t="n">
-        <v>-5.645134028237947</v>
+        <v>-5.645134028237949</v>
       </c>
     </row>
     <row r="36">
@@ -8578,16 +8578,16 @@
         <v>-12.77084902812433</v>
       </c>
       <c r="BG36" t="n">
-        <v>-11.78953178811097</v>
+        <v>-11.78953178811096</v>
       </c>
       <c r="BH36" t="n">
-        <v>-8.304320482004137</v>
+        <v>-8.304320482004135</v>
       </c>
       <c r="BI36" t="n">
-        <v>-6.991097345840907</v>
+        <v>-6.991097345840906</v>
       </c>
       <c r="BJ36" t="n">
-        <v>-7.137671341670782</v>
+        <v>-7.137671341670784</v>
       </c>
     </row>
     <row r="37">
@@ -8802,16 +8802,16 @@
         <v>-14.65764148095452</v>
       </c>
       <c r="BG37" t="n">
-        <v>-10.78953178811097</v>
+        <v>-10.78953178811096</v>
       </c>
       <c r="BH37" t="n">
-        <v>-7.304320482004137</v>
+        <v>-7.304320482004135</v>
       </c>
       <c r="BI37" t="n">
-        <v>-5.991097345840907</v>
+        <v>-5.991097345840906</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-6.137671341670782</v>
+        <v>-6.137671341670784</v>
       </c>
     </row>
     <row r="38">
@@ -9026,16 +9026,16 @@
         <v>-13.65764148095452</v>
       </c>
       <c r="BG38" t="n">
-        <v>-11.84216336705834</v>
+        <v>-11.84216336705833</v>
       </c>
       <c r="BH38" t="n">
-        <v>-8.356952060951505</v>
+        <v>-8.356952060951503</v>
       </c>
       <c r="BI38" t="n">
-        <v>-7.043728924788275</v>
+        <v>-7.043728924788274</v>
       </c>
       <c r="BJ38" t="n">
-        <v>-7.190302920618151</v>
+        <v>-7.190302920618152</v>
       </c>
     </row>
     <row r="39">
@@ -9253,13 +9253,13 @@
         <v>-12.75125427614924</v>
       </c>
       <c r="BH39" t="n">
-        <v>-9.266042970042413</v>
+        <v>-9.266042970042411</v>
       </c>
       <c r="BI39" t="n">
-        <v>-7.952819833879184</v>
+        <v>-7.952819833879183</v>
       </c>
       <c r="BJ39" t="n">
-        <v>-8.09939382970906</v>
+        <v>-8.099393829709062</v>
       </c>
     </row>
     <row r="40">
@@ -9474,16 +9474,16 @@
         <v>-13.133831957145</v>
       </c>
       <c r="BG40" t="n">
-        <v>-13.92772486438454</v>
+        <v>-13.92772486438453</v>
       </c>
       <c r="BH40" t="n">
-        <v>-10.44251355827771</v>
+        <v>-10.4425135582777</v>
       </c>
       <c r="BI40" t="n">
         <v>-9.129290422114478</v>
       </c>
       <c r="BJ40" t="n">
-        <v>-7.09939382970906</v>
+        <v>-7.099393829709062</v>
       </c>
     </row>
     <row r="41">
@@ -9701,13 +9701,13 @@
         <v>-14.5943915310512</v>
       </c>
       <c r="BH41" t="n">
-        <v>-9.442513558277707</v>
+        <v>-9.442513558277705</v>
       </c>
       <c r="BI41" t="n">
         <v>-8.129290422114478</v>
       </c>
       <c r="BJ41" t="n">
-        <v>-6.09939382970906</v>
+        <v>-6.099393829709062</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>-16.5943915310512</v>
       </c>
       <c r="BH42" t="n">
-        <v>-11.44251355827771</v>
+        <v>-11.4425135582777</v>
       </c>
       <c r="BI42" t="n">
         <v>-10.12929042211448</v>
       </c>
       <c r="BJ42" t="n">
-        <v>-8.09939382970906</v>
+        <v>-8.099393829709062</v>
       </c>
     </row>
     <row r="43">
@@ -10149,13 +10149,13 @@
         <v>-15.5943915310512</v>
       </c>
       <c r="BH43" t="n">
-        <v>-10.44251355827771</v>
+        <v>-10.4425135582777</v>
       </c>
       <c r="BI43" t="n">
         <v>-9.129290422114478</v>
       </c>
       <c r="BJ43" t="n">
-        <v>-7.09939382970906</v>
+        <v>-7.099393829709062</v>
       </c>
     </row>
     <row r="44">
@@ -10373,13 +10373,13 @@
         <v>-14.5943915310512</v>
       </c>
       <c r="BH44" t="n">
-        <v>-9.442513558277707</v>
+        <v>-9.442513558277705</v>
       </c>
       <c r="BI44" t="n">
         <v>-8.129290422114478</v>
       </c>
       <c r="BJ44" t="n">
-        <v>-6.09939382970906</v>
+        <v>-6.099393829709062</v>
       </c>
     </row>
     <row r="45">
@@ -10597,13 +10597,13 @@
         <v>-13.5943915310512</v>
       </c>
       <c r="BH45" t="n">
-        <v>-8.442513558277707</v>
+        <v>-8.442513558277705</v>
       </c>
       <c r="BI45" t="n">
         <v>-7.129290422114478</v>
       </c>
       <c r="BJ45" t="n">
-        <v>-5.09939382970906</v>
+        <v>-5.099393829709062</v>
       </c>
     </row>
     <row r="46">
@@ -10821,13 +10821,13 @@
         <v>-14.77086211928649</v>
       </c>
       <c r="BH46" t="n">
-        <v>-9.618984146513</v>
+        <v>-9.618984146512998</v>
       </c>
       <c r="BI46" t="n">
         <v>-8.305761010349771</v>
       </c>
       <c r="BJ46" t="n">
-        <v>-6.275864417944353</v>
+        <v>-6.275864417944355</v>
       </c>
     </row>
     <row r="47">
@@ -11051,7 +11051,7 @@
         <v>-9.675624024048401</v>
       </c>
       <c r="BJ47" t="n">
-        <v>-7.645727431642984</v>
+        <v>-7.645727431642985</v>
       </c>
     </row>
     <row r="48">
@@ -11269,13 +11269,13 @@
         <v>-15.14072513298512</v>
       </c>
       <c r="BH48" t="n">
-        <v>-9.98884716021163</v>
+        <v>-9.988847160211629</v>
       </c>
       <c r="BI48" t="n">
         <v>-8.675624024048401</v>
       </c>
       <c r="BJ48" t="n">
-        <v>-9.258630657449434</v>
+        <v>-9.258630657449437</v>
       </c>
     </row>
     <row r="49">
@@ -11499,7 +11499,7 @@
         <v>-10.49380584223022</v>
       </c>
       <c r="BJ49" t="n">
-        <v>-11.07681247563125</v>
+        <v>-11.07681247563126</v>
       </c>
     </row>
     <row r="50">
@@ -11723,7 +11723,7 @@
         <v>-9.49380584223022</v>
       </c>
       <c r="BJ50" t="n">
-        <v>-10.07681247563125</v>
+        <v>-10.07681247563126</v>
       </c>
     </row>
     <row r="51">
@@ -11947,7 +11947,7 @@
         <v>-10.49380584223022</v>
       </c>
       <c r="BJ51" t="n">
-        <v>-9.076812475631252</v>
+        <v>-9.076812475631256</v>
       </c>
     </row>
     <row r="52">
@@ -11956,47 +11956,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dender</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Over</t>
+          <t>Under</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -12035,31 +12035,31 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>1.14</v>
       </c>
       <c r="S52" t="n">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="T52" t="n">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="U52" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V52" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>7.142857142857148</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>7.142857142857148</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>7.142857142857148</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>7.142857142857148</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -12074,31 +12074,31 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1.492537313432836</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1.492537313432836</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="AK52" t="n">
-        <v>1.492537313432836</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="AL52" t="n">
-        <v>1.492537313432836</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AN52" t="n">
         <v>0</v>
@@ -12110,19 +12110,19 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>Under</t>
+          <t>Over</t>
         </is>
       </c>
       <c r="AU52" t="n">
@@ -12138,16 +12138,16 @@
         <v>1</v>
       </c>
       <c r="AY52" t="n">
-        <v>-1.492537313432836</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-1.492537313432836</v>
+        <v>1</v>
       </c>
       <c r="BA52" t="n">
-        <v>-1.492537313432836</v>
+        <v>1</v>
       </c>
       <c r="BB52" t="n">
-        <v>-1.492537313432836</v>
+        <v>1</v>
       </c>
       <c r="BC52" t="n">
         <v>-2.429970724503184</v>
@@ -12162,16 +12162,16 @@
         <v>-9.158604252750623</v>
       </c>
       <c r="BG52" t="n">
-        <v>-18.45144426459978</v>
+        <v>-17.62557361783361</v>
       </c>
       <c r="BH52" t="n">
-        <v>-13.29956629182628</v>
+        <v>-10.80702897839345</v>
       </c>
       <c r="BI52" t="n">
-        <v>-11.98634315566306</v>
+        <v>-9.49380584223022</v>
       </c>
       <c r="BJ52" t="n">
-        <v>-10.56934978906409</v>
+        <v>-8.076812475631256</v>
       </c>
     </row>
     <row r="53">
@@ -12180,47 +12180,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Dender</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -12235,120 +12235,120 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
           <t>Under</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>William Hill</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="T53" t="n">
-        <v>17</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W53" t="n">
-        <v>7.142857142857148</v>
-      </c>
-      <c r="X53" t="n">
-        <v>7.142857142857148</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>7.142857142857148</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>7.142857142857148</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS53" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AT53" t="inlineStr">
-        <is>
-          <t>Over</t>
-        </is>
-      </c>
       <c r="AU53" t="n">
         <v>1</v>
       </c>
@@ -12362,16 +12362,16 @@
         <v>1</v>
       </c>
       <c r="AY53" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="AZ53" t="n">
-        <v>1</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="BA53" t="n">
-        <v>1</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="BB53" t="n">
-        <v>1</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="BC53" t="n">
         <v>-1.429970724503184</v>
@@ -12395,7 +12395,7 @@
         <v>-10.98634315566306</v>
       </c>
       <c r="BJ53" t="n">
-        <v>-9.569349789064088</v>
+        <v>-9.569349789064091</v>
       </c>
     </row>
     <row r="54">
@@ -12620,6 +12620,6502 @@
       </c>
       <c r="BJ54" t="n">
         <v>-11.10781132752563</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45725.51041666666</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>-1.858542153074612</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>-8.388204055634739</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>-15.34492616424324</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>-8.587175681322051</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>-19.65657246972799</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>-12.83802783028782</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>-11.52480469412459</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>-12.35781132752563</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45725.52083333334</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.2666666666666667</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>-0.2666666666666667</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>-0.8585421530746125</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>-8.654870722301407</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>-15.61159283090991</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>-7.587175681322051</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>-18.65657246972799</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>-11.83802783028782</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>-10.52480469412459</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>-11.35781132752563</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45725.58333333334</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>13</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3</v>
+      </c>
+      <c r="W57" t="n">
+        <v>5.000000000000001</v>
+      </c>
+      <c r="X57" t="n">
+        <v>5.000000000000001</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>5.000000000000001</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>5.000000000000001</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>-2.777777777777777</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>-2.777777777777777</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>-2.777777777777777</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>-2.777777777777777</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0.1414578469253875</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>-7.654870722301407</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>-14.61159283090991</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>-6.587175681322051</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>-21.43435024750576</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>-14.6158056080656</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>-13.30258247190237</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>-14.13558910530341</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45725.58333333334</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU58" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>-0.5555555555555556</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>-0.4758261036918964</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>-8.27215467291869</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>-15.22887678152719</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>-7.204459631939335</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>-21.98990580306132</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>-13.6158056080656</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>-12.30258247190237</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>-13.13558910530341</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45725.58333333334</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ath Madrid</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>-1.428207056072849</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>-9.224535625299643</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>-16.18125773390814</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>-8.156840584320289</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>-20.98990580306132</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>-12.6158056080656</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>-11.30258247190237</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>-12.13558910530341</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45725.60416666666</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.8695652173913044</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.8695652173913044</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>-0.8695652173913044</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>-0.8695652173913044</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>-2.297772273464154</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>-10.09410084269095</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>-17.05082295129944</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>-9.026405801711594</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>-19.98990580306132</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>-13.56818656044655</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>-10.30258247190237</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>-13.08797005768436</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45725.60416666666</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>-0.2631578947368421</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>-0.2631578947368421</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>-0.2631578947368421</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>-1.297772273464154</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>-10.35725873742779</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>-17.31398084603629</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>-9.289563696448436</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>-21.41847723163275</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>-14.99675798901798</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>-11.7311539004738</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>-14.51654148625579</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45725.60416666666</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.6172839506172839</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>-0.6172839506172839</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>-2.297772273464154</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>-11.35725873742779</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>-18.31398084603629</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>-8.289563696448436</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>-22.03576118225003</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>-15.61404193963526</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>-12.34843785109108</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>-13.51654148625579</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45725.625</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>-1.297772273464154</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>-10.35725873742779</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>-17.31398084603629</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>-7.289563696448436</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>-23.03576118225003</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>-16.61404193963526</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>-13.34843785109108</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>-12.51654148625579</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45725.625</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>-0.2977722734641539</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>-9.35725873742779</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>-16.31398084603629</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>-6.289563696448436</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>-22.03576118225003</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>-18.04261336820669</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>-14.77700927966251</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>-13.94511291482722</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45725.64583333334</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Ein Frankfurt</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0.7022277265358461</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>-8.35725873742779</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>-15.31398084603629</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>-5.289563696448436</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>-21.03576118225003</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>-17.04261336820669</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>-13.77700927966251</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>-12.94511291482722</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45725.66666666666</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.492537313432836</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>-1.492537313432836</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.702227726535846</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>-7.35725873742779</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>-14.31398084603629</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>-5.689563696448436</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>-22.52829849568287</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>-18.53515068163953</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>-12.77700927966251</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>-14.43765022826005</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45725.67708333334</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T67" t="n">
+        <v>10</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W67" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.886792452830188</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.702227726535845</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>-6.35725873742779</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>-13.31398084603629</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>-4.689563696448436</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>-21.52829849568287</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>-17.53515068163953</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>-11.77700927966251</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>-13.43765022826005</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45725.6875</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Man United</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU68" t="n">
+        <v>-1.204819277108434</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>-0.2941176470588235</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>-0.9523809523809526</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.497408449427411</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>-6.651376384486613</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>-13.60809849309511</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>-4.98368134350726</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>-22.48067944806382</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>-18.48753163402048</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>-12.72939023204346</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>-12.43765022826005</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45725.69791666666</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.497408449427411</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>-5.651376384486613</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>-12.60809849309511</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>-3.98368134350726</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>-24.48067944806382</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>-20.48753163402048</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>-14.72939023204346</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>-14.43765022826005</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45725.71875</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.7246376811594204</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.7246376811594204</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>-0.7246376811594204</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>-0.7246376811594204</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>3.497408449427411</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>-6.376014065646034</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>-13.33273617425453</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>-2.98368134350726</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>-25.53331102701119</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>-21.54016321296785</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>-15.78202181099083</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>-15.49028180720742</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45725.71875</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU71" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.830741782760745</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>-7.042680732312701</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>-13.9994028409212</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>-3.650348010173926</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>-26.58594260595856</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>-22.59279479191522</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>-16.8346533899382</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>-16.54291338615479</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45725.71875</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>St Etienne</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU72" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>-1.204819277108434</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>-1.204819277108434</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>-1.204819277108434</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>-1.204819277108434</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.061511013529976</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>-7.81191150154347</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>-14.76863361015197</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>-2.650348010173926</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>-27.79076188306699</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>-23.79761406902365</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>-18.03947266704663</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>-17.74773266326322</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45725.72916666666</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU73" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>-1.612903225806451</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.7281776801966426</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>-9.145244834876802</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>-16.1019669434853</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>-3.983681343507259</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>-29.40366510887344</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>-25.4105172948301</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>-19.65237589285309</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>-19.36063588906967</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45725.75</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sp Lisbon</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.728177680196643</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>-8.145244834876802</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>-16.43530027681863</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>-2.983681343507259</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>-28.40366510887344</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>-24.4105172948301</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>-18.65237589285309</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>-20.41326746801704</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45725.75</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU75" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>-1.052631578947368</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.328177680196643</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>-7.145244834876802</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>-15.43530027681863</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>-3.383681343507259</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>-29.45629668782081</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>-25.46314887377747</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>-19.70500747180045</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>-21.46589904696441</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45725.77083333334</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.328177680196643</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>-6.145244834876802</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>-14.43530027681863</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>-2.383681343507259</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>-30.78963002115414</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>-26.7964822071108</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>-21.03834080513379</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>-22.79923238029774</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45725.77083333334</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T77" t="n">
+        <v>6</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W77" t="n">
+        <v>2</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.428571428571429</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>3.328177680196643</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>-5.145244834876802</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>-13.43530027681863</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>-1.383681343507259</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>-32.21820144972557</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>-28.22505363568223</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>-22.46691223370522</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>-24.22780380886917</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45725.77083333334</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W78" t="n">
+        <v>2</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU78" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.328177680196643</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>-7.145244834876802</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>-15.43530027681863</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>-3.383681343507259</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>-33.21820144972557</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>-29.22505363568223</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>-23.46691223370522</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>-25.22780380886917</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45725.80208333334</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>St. Gilloise</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T79" t="n">
+        <v>8</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W79" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.777777777777777</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.612903225806451</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.328177680196643</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>-6.145244834876802</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>-14.43530027681863</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>-2.383681343507259</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>-32.21820144972557</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>-28.22505363568223</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>-22.46691223370522</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>-24.22780380886917</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45725.85416666666</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>3.328177680196643</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>-6.353578168210135</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>-13.43530027681863</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>-2.592014676840593</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>-31.21820144972557</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>-27.22505363568223</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>-21.46691223370522</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>-23.22780380886917</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45725.86458333334</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="AU81" t="n">
+        <v>-0.4761904761904762</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>-0.7142857142857143</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2.851987204006166</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>-7.06786388249585</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>-14.14958599110435</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>-3.306300391126307</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>-32.46820144972557</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>-26.22505363568223</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>-20.46691223370522</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>-22.22780380886917</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45725.86458333334</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU82" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>-0.7692307692307694</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>-1.538461538461539</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.082756434775397</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>-7.837094651726619</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>-14.91881676033512</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>-4.075531160357077</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>-34.00666298818711</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>-27.76351517414377</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>-22.00537377216676</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>-23.76626534733071</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45725.875</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sociedad</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Over</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>William Hill</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>Under</t>
+        </is>
+      </c>
+      <c r="AU83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>-0.9090909090909091</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>3.082756434775397</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>-6.837094651726619</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>-15.82790766942603</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>-3.075531160357077</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>-34.80666298818711</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>-28.56351517414377</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>-22.80537377216676</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>-24.56626534733071</v>
       </c>
     </row>
   </sheetData>
@@ -12656,105 +19152,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FTR_gNB_profit</t>
+          <t>FTR_gNB_profit_cumsum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.858542153074611</v>
+        <v>6.602016763406869</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05393475760518134</v>
+        <v>0.0805123995537423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>FTR_RF_profit</t>
+          <t>FTR_RF_profit_cumsum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.388204055634741</v>
+        <v>-227.0647970732614</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.177135925578014</v>
+        <v>-2.769082891137334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>FTR_DT_profit</t>
+          <t>FTR_DT_profit_cumsum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-14.92825949757658</v>
+        <v>-569.7974479619688</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2816652735391807</v>
+        <v>-6.948749365389864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>FTR_KNN_profit</t>
+          <t>FTR_KNN_profit_cumsum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-9.587175681322053</v>
+        <v>-208.2470579405714</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1808901071947557</v>
+        <v>-2.539598267567944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>O/U2.5_gNB_profit</t>
+          <t>O/U2.5_gNB_profit_cumsum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20.65657246972799</v>
+        <v>-443.3699819994921</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3897466503722262</v>
+        <v>-5.406950999993806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>O/U2.5_RF_profit</t>
+          <t>O/U2.5_RF_profit_cumsum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.83802783028782</v>
+        <v>-354.3655535920785</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2610948647224118</v>
+        <v>-4.321531141366811</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>O/U2.5_DT_profit</t>
+          <t>O/U2.5_DT_profit_cumsum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.52480469412459</v>
+        <v>-210.4481595297244</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.236317069700464</v>
+        <v>-2.566440969874688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>O/U2.5_KNN_profit</t>
+          <t>O/U2.5_KNN_profit_cumsum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-11.10781132752563</v>
+        <v>-316.7536076466161</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2095813458023704</v>
+        <v>-3.862848873739221</v>
       </c>
     </row>
   </sheetData>
